--- a/results/[6_green_friendly]_#_inv_cost.xlsx
+++ b/results/[6_green_friendly]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2900.485002656088</v>
+        <v>8298.121061896434</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7396.53779363632</v>
+        <v>231408.4314442363</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3886.044342077681</v>
+        <v>64767.40570129467</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16594.1214446592</v>
+        <v>129368.5348562943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>387937.771360128</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>87109.77021824001</v>
       </c>
       <c r="N2" t="n">
-        <v>2612.054479408706</v>
+        <v>56002.98791663077</v>
       </c>
       <c r="O2" t="n">
-        <v>3873.267167203871</v>
+        <v>55795.91474765583</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2174.231362459288</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4841.522626925037</v>
+        <v>24962.59086493072</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20623.29738598587</v>
+        <v>136526.8409003387</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>30928.31195737534</v>
+        <v>167264.4907388069</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>50814.49290518981</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>56347.39187164272</v>
       </c>
       <c r="N2" t="n">
-        <v>4438.154070142308</v>
+        <v>15428.15328371197</v>
       </c>
       <c r="O2" t="n">
-        <v>3744.646348341396</v>
+        <v>21626.51095245816</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2832.19147403433</v>
+        <v>22034.54043650656</v>
       </c>
       <c r="B2" t="n">
-        <v>7497.670131950285</v>
+        <v>17690.57314618799</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31017.14640827181</v>
+        <v>91724.35221653034</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45865.3430875534</v>
+        <v>123092.8689171273</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>36699.26852609014</v>
       </c>
       <c r="N2" t="n">
-        <v>8069.495532797077</v>
+        <v>31741.5082371194</v>
       </c>
       <c r="O2" t="n">
-        <v>6135.849774646539</v>
+        <v>25048.83495982233</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>914.0641520319534</v>
       </c>
       <c r="O2" t="n">
-        <v>395.3475749136197</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1241.565034293579</v>
+        <v>23670.66806629021</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3478.034812508252</v>
       </c>
       <c r="O2" t="n">
-        <v>326.4757816112397</v>
+        <v>16343.81581915547</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_inv_cost.xlsx
+++ b/results/[6_green_friendly]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5506.349724949675</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28561.49191032757</v>
+        <v>46436.48618400006</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>117898.6550427104</v>
+        <v>254562.6397561083</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64767.40570129467</v>
+        <v>64767.40570129472</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>177663.1046183601</v>
+        <v>169331.8557977695</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>157516.0187077389</v>
+        <v>391439.272052782</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>48806.4233204696</v>
+        <v>57497.45683913826</v>
       </c>
       <c r="O2" t="n">
-        <v>27825.19181850667</v>
+        <v>52873.29882886782</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25503.69277493827</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54114.89090810202</v>
+        <v>53213.57539827293</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>296643.4106009097</v>
+        <v>140913.2167893911</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>172395.3115647062</v>
+        <v>137718.8074294309</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>644384.3135763648</v>
+        <v>100616.5925057371</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>103519.2683065341</v>
+        <v>13951.98301190023</v>
       </c>
       <c r="O2" t="n">
-        <v>24621.94166412963</v>
+        <v>5784.902224332255</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19686.55110440619</v>
+        <v>9466.406440477318</v>
       </c>
       <c r="B2" t="n">
-        <v>125956.636146296</v>
+        <v>28163.43894958384</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>504863.4570177993</v>
+        <v>134040.3978993126</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>505612.5882795815</v>
+        <v>142850.152056096</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>501690.7057563098</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>190887.1540261811</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>80667.51928860991</v>
+        <v>35153.79306694151</v>
       </c>
       <c r="O2" t="n">
-        <v>134956.0984428279</v>
+        <v>39339.82394484724</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_inv_cost.xlsx
+++ b/results/[6_green_friendly]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>46436.48618400006</v>
+        <v>46067.92104640001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>254562.6397561083</v>
+        <v>254981.2308191619</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64767.40570129472</v>
+        <v>64767.40570129279</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>169331.8557977695</v>
+        <v>168410.8627624734</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>391439.272052782</v>
+        <v>389668.043028528</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>57497.45683913826</v>
+        <v>58533.57433750998</v>
       </c>
       <c r="O2" t="n">
-        <v>52873.29882886782</v>
+        <v>57675.15229854788</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53213.57539827293</v>
+        <v>74461.72699460713</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>140913.2167893911</v>
+        <v>237095.1674128622</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>137718.8074294309</v>
+        <v>200896.4414953778</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100616.5925057371</v>
+        <v>213430.223024568</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13951.98301190023</v>
+        <v>26186.29843170313</v>
       </c>
       <c r="O2" t="n">
-        <v>5784.902224332255</v>
+        <v>10012.69360089747</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9466.406440477318</v>
+        <v>9052.525562708204</v>
       </c>
       <c r="B2" t="n">
-        <v>28163.43894958384</v>
+        <v>29037.59611842986</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>134040.3978993126</v>
+        <v>129622.1712440273</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>142850.152056096</v>
+        <v>134411.1596091401</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>35153.79306694151</v>
+        <v>39962.63554520423</v>
       </c>
       <c r="O2" t="n">
-        <v>39339.82394484724</v>
+        <v>44812.74248186876</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_inv_cost.xlsx
+++ b/results/[6_green_friendly]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8298.121061896434</v>
+        <v>7791.630278080007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>231408.4314442363</v>
+        <v>231859.0077278444</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>129368.5348562943</v>
+        <v>129402.25083824</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>387937.771360128</v>
+        <v>388196.236028304</v>
       </c>
       <c r="M2" t="n">
-        <v>87109.77021824001</v>
+        <v>87070.39609781333</v>
       </c>
       <c r="N2" t="n">
-        <v>56002.98791663077</v>
+        <v>56665.56446366481</v>
       </c>
       <c r="O2" t="n">
-        <v>55795.91474765583</v>
+        <v>55688.35379128032</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>24962.59086493072</v>
+        <v>37908.85114466308</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>136526.8409003387</v>
+        <v>216989.4393747085</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>167264.4907388069</v>
+        <v>224340.9369390888</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50814.49290518981</v>
+        <v>147536.3839604098</v>
       </c>
       <c r="M2" t="n">
-        <v>56347.39187164272</v>
+        <v>93673.10875507205</v>
       </c>
       <c r="N2" t="n">
-        <v>15428.15328371197</v>
+        <v>27145.4596892804</v>
       </c>
       <c r="O2" t="n">
-        <v>21626.51095245816</v>
+        <v>40388.37785974222</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22034.54043650656</v>
+        <v>22895.69120990697</v>
       </c>
       <c r="B2" t="n">
-        <v>17690.57314618799</v>
+        <v>18514.63588195528</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91724.35221653034</v>
+        <v>89533.4725380327</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>123092.8689171273</v>
+        <v>120308.2182965601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>36699.26852609014</v>
+        <v>28613.58482505595</v>
       </c>
       <c r="N2" t="n">
-        <v>31741.5082371194</v>
+        <v>35950.49127023212</v>
       </c>
       <c r="O2" t="n">
-        <v>25048.83495982233</v>
+        <v>21550.65044883481</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>914.0641520319534</v>
+        <v>811.8131926239505</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23670.66806629021</v>
+        <v>27527.29374076518</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3478.034812508252</v>
+        <v>4146.158925555366</v>
       </c>
       <c r="O2" t="n">
-        <v>16343.81581915547</v>
+        <v>18378.03620052724</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_inv_cost.xlsx
+++ b/results/[6_green_friendly]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5506.349724949675</v>
+        <v>26325.3230893218</v>
       </c>
       <c r="B2" t="n">
-        <v>28561.49191032757</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>417051.6887168352</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>117898.6550427104</v>
+        <v>2317792.09144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>68792.76884578625</v>
       </c>
       <c r="G2" t="n">
-        <v>64767.40570129467</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>21387.67371038613</v>
       </c>
       <c r="I2" t="n">
-        <v>177663.1046183601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>157516.0187077389</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>48806.4233204696</v>
+        <v>20541.09265102239</v>
       </c>
       <c r="O2" t="n">
-        <v>27825.19181850667</v>
+        <v>15066.01836713905</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25503.69277493827</v>
+        <v>13641.31026914681</v>
       </c>
       <c r="B2" t="n">
-        <v>54114.89090810202</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1191640.552160383</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>296643.4106009097</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62627.17757555633</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>42508.22439121735</v>
       </c>
       <c r="I2" t="n">
-        <v>172395.3115647062</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>644384.3135763648</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>103519.2683065341</v>
+        <v>54572.42898948216</v>
       </c>
       <c r="O2" t="n">
-        <v>24621.94166412963</v>
+        <v>27155.87524550965</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19686.55110440619</v>
+        <v>112388.9212775905</v>
       </c>
       <c r="B2" t="n">
-        <v>125956.636146296</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>893604.4700225674</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>504863.4570177993</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15479.82285444617</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29654.26283910187</v>
       </c>
       <c r="I2" t="n">
-        <v>505612.5882795815</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>501690.7057563098</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>190887.1540261811</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>80667.51928860991</v>
+        <v>45026.60623668435</v>
       </c>
       <c r="O2" t="n">
-        <v>134956.0984428279</v>
+        <v>34245.40897230591</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[6_green_friendly]_#_inv_cost.xlsx
+++ b/results/[6_green_friendly]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>31251.19287316165</v>
       </c>
       <c r="B2" t="n">
-        <v>2900.485002656088</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>386830.1019569611</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7396.53779363632</v>
+        <v>2317792.09144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75465.07577201782</v>
       </c>
       <c r="G2" t="n">
-        <v>3886.044342077681</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20274.22343033684</v>
       </c>
       <c r="I2" t="n">
-        <v>16594.1214446592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2612.054479408706</v>
+        <v>18910.44901441236</v>
       </c>
       <c r="O2" t="n">
-        <v>3873.267167203871</v>
+        <v>15952.10825463477</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2174.231362459288</v>
+        <v>24677.2233802937</v>
       </c>
       <c r="B2" t="n">
-        <v>4841.522626925037</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1196479.899689134</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20623.29738598587</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>56155.0398571117</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45281.94202016341</v>
       </c>
       <c r="I2" t="n">
-        <v>30928.31195737534</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4438.154070142308</v>
+        <v>41319.33120982331</v>
       </c>
       <c r="O2" t="n">
-        <v>3744.646348341396</v>
+        <v>34059.82347464918</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2832.19147403433</v>
+        <v>193961.9401775642</v>
       </c>
       <c r="B2" t="n">
-        <v>7497.670131950285</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>754668.2160649784</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31017.14640827181</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1140.740783696684</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31499.18821270974</v>
       </c>
       <c r="I2" t="n">
-        <v>45865.3430875534</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8069.495532797077</v>
+        <v>42646.53192577381</v>
       </c>
       <c r="O2" t="n">
-        <v>6135.849774646539</v>
+        <v>24018.47504444163</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9262.79801954542</v>
       </c>
       <c r="O2" t="n">
-        <v>395.3475749136197</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1241.565034293579</v>
+        <v>61364.47115330531</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1544.757918726473</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>22517.87701973088</v>
       </c>
       <c r="O2" t="n">
-        <v>326.4757816112397</v>
+        <v>6650.12915920241</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[6_green_friendly]_#_inv_cost.xlsx
+++ b/results/[6_green_friendly]_#_inv_cost.xlsx
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>20541.09265102239</v>
+        <v>20541.0926510224</v>
       </c>
       <c r="O2" t="n">
         <v>15066.01836713905</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13641.31026914681</v>
+        <v>13641.31026914664</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>42508.22439121735</v>
+        <v>42508.22439121734</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>54572.42898948216</v>
+        <v>54572.42898948202</v>
       </c>
       <c r="O2" t="n">
-        <v>27155.87524550965</v>
+        <v>27155.87524550967</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112388.9212775905</v>
+        <v>112388.9212775906</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>893604.4700225674</v>
+        <v>893604.4700225672</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15479.82285444617</v>
+        <v>15479.8228544463</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>29654.26283910187</v>
+        <v>29654.26283910253</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>45026.60623668435</v>
+        <v>45026.60623668434</v>
       </c>
       <c r="O2" t="n">
-        <v>34245.40897230591</v>
+        <v>34245.40897230533</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_inv_cost.xlsx
+++ b/results/[6_green_friendly]_#_inv_cost.xlsx
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64767.40570129279</v>
+        <v>64767.40570129481</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>168410.8627624734</v>
+        <v>168410.8627624735</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58533.57433750998</v>
+        <v>58533.57433750938</v>
       </c>
       <c r="O2" t="n">
-        <v>57675.15229854788</v>
+        <v>57675.15229854779</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>74461.72699460713</v>
+        <v>74461.72699460707</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>237095.1674128622</v>
+        <v>237095.1674128618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>200896.4414953778</v>
+        <v>200896.4414953776</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26186.29843170313</v>
+        <v>26186.29843170318</v>
       </c>
       <c r="O2" t="n">
-        <v>10012.69360089747</v>
+        <v>10012.6936008976</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9052.525562708204</v>
+        <v>9052.525562708615</v>
       </c>
       <c r="B2" t="n">
-        <v>29037.59611842986</v>
+        <v>29037.59611842693</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129622.1712440273</v>
+        <v>129622.1712440277</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>39962.63554520423</v>
+        <v>39962.63554520586</v>
       </c>
       <c r="O2" t="n">
-        <v>44812.74248186876</v>
+        <v>44812.74248186873</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_inv_cost.xlsx
+++ b/results/[6_green_friendly]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>87070.39609781333</v>
       </c>
       <c r="N2" t="n">
-        <v>56665.56446366481</v>
+        <v>56665.56446366477</v>
       </c>
       <c r="O2" t="n">
-        <v>55688.35379128032</v>
+        <v>55688.3537912803</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37908.85114466308</v>
+        <v>37870.89546016529</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>224340.9369390888</v>
+        <v>226534.2213208755</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>147536.3839604098</v>
+        <v>142476.3005577463</v>
       </c>
       <c r="M2" t="n">
-        <v>93673.10875507205</v>
+        <v>93731.81239819515</v>
       </c>
       <c r="N2" t="n">
-        <v>27145.4596892804</v>
+        <v>27145.45968928043</v>
       </c>
       <c r="O2" t="n">
-        <v>40388.37785974222</v>
+        <v>40525.81511985242</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22895.69120990697</v>
+        <v>23418.88254333185</v>
       </c>
       <c r="B2" t="n">
-        <v>18514.63588195528</v>
+        <v>17864.57798134877</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89533.4725380327</v>
+        <v>88591.48758750911</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120308.2182965601</v>
+        <v>120309.5553113526</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28613.58482505595</v>
+        <v>29233.1369406852</v>
       </c>
       <c r="N2" t="n">
-        <v>35950.49127023212</v>
+        <v>35850.72954647117</v>
       </c>
       <c r="O2" t="n">
-        <v>21550.65044883481</v>
+        <v>21420.44672873601</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>811.8131926239505</v>
+        <v>832.9248897141631</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27527.29374076518</v>
+        <v>27405.00233090627</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4146.158925555366</v>
+        <v>4217.51601927484</v>
       </c>
       <c r="O2" t="n">
-        <v>18378.03620052724</v>
+        <v>18378.03620052791</v>
       </c>
     </row>
   </sheetData>
